--- a/jpcore-r4b/develop/observations-summary.xlsx
+++ b/jpcore-r4b/develop/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Profile</t>
   </si>
@@ -47,16 +47,40 @@
     <t>Method</t>
   </si>
   <si>
+    <t>jp-observation-bodymeasurement</t>
+  </si>
+  <si>
+    <t>JP Core Observation BodyMeasurement Profile</t>
+  </si>
+  <si>
+    <t>null#body-measurement</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCategory_VS (preferred)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCode_VS (preferred)</t>
+  </si>
+  <si>
+    <t>dateTime, Period</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>jp-observation-labresult</t>
   </si>
   <si>
     <t>JP Core Observation LabResult Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t/>
+    <t>JP Core Simple Observation Category CodeSystem#laboratory</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS (preferred)</t>
@@ -68,7 +92,16 @@
     <t>Quantity, CodeableConcept, string</t>
   </si>
   <si>
-    <t>optional</t>
+    <t>jp-observation-microbiology</t>
+  </si>
+  <si>
+    <t>JP Core Observation Microbiology Profile</t>
+  </si>
+  <si>
+    <t>JP Core Simple Observation Category CodeSystem#laboratory, LOINC#18725-2</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS (required)</t>
   </si>
   <si>
     <t>jp-observation-physicalexam</t>
@@ -77,19 +110,13 @@
     <t>JP Core Observation PhysicalExam Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#exam</t>
+    <t>JP Core Simple Observation Category CodeSystem#exam</t>
   </si>
   <si>
     <t>null#physical-findings</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PhysicalExamCode_VS (preferred)</t>
-  </si>
-  <si>
-    <t>dateTime, Period</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PhysicalExamCode_VS (required)</t>
   </si>
   <si>
     <t>jp-observation-socialhistory</t>
@@ -98,10 +125,22 @@
     <t>JP Core Observation SocialHistory Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#social-history</t>
+    <t>JP Core Simple Observation Category CodeSystem#social-history</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationSocialHistoryCode_VS (preferred)</t>
+  </si>
+  <si>
+    <t>jp-observation-vitalsigns</t>
+  </si>
+  <si>
+    <t>JP Core Observation VitalSigns Profile</t>
+  </si>
+  <si>
+    <t>JP Core Simple Observation Category CodeSystem#vital-signs</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationVitalSignsCode_VS (preferred)</t>
   </si>
 </sst>
 </file>
@@ -223,10 +262,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -235,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,42 +329,42 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>23</v>
@@ -337,13 +376,13 @@
         <v>25</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -357,28 +396,133 @@
         <v>28</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="H5" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>14</v>
+      <c r="I5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4b/develop/observations-summary.xlsx
+++ b/jpcore-r4b/develop/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Profile</t>
   </si>
@@ -53,10 +53,7 @@
     <t>JP Core Observation BodyMeasurement Profile</t>
   </si>
   <si>
-    <t>null#body-measurement</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCategory_VS (preferred)</t>
+    <t>JP Core Simple Observation Category CodeSystem#body-measurement</t>
   </si>
   <si>
     <t/>
@@ -329,200 +326,200 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="J2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="C3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="G3" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="G4" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="2">
+      <c r="F5" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>34</v>
-      </c>
       <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="I5" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="G6" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="I7" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I7" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="J7" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
